--- a/output_samples_of_plants.xlsx
+++ b/output_samples_of_plants.xlsx
@@ -31,19 +31,19 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>SVEKLA</t>
+    <t>PAR</t>
   </si>
   <si>
     <t>YACHMEN</t>
   </si>
   <si>
-    <t>PSHENICA</t>
-  </si>
-  <si>
     <t>SOYA</t>
   </si>
   <si>
-    <t>PAR</t>
+    <t>SVEKLA</t>
+  </si>
+  <si>
+    <t>PSHENICA</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -463,13 +463,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,10 +483,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +497,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,13 +531,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -568,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,10 +633,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -650,13 +650,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,13 +667,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,13 +718,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -752,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,13 +769,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -786,10 +786,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -803,13 +803,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -837,13 +837,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -871,13 +871,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -891,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,13 +905,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -922,13 +922,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,13 +939,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -956,13 +956,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,13 +973,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -990,13 +990,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,13 +1007,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,13 +1041,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,13 +1058,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1075,13 +1075,13 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,13 +1109,13 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,13 +1126,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1143,13 +1143,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1160,13 +1160,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,13 +1177,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1211,13 +1211,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,13 +1245,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1262,13 +1262,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,13 +1279,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1313,13 +1313,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1347,13 +1347,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1364,10 +1364,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1381,13 +1381,13 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1398,13 +1398,13 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1432,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>471097960</v>
+        <v>482174352</v>
       </c>
       <c r="D61">
-        <v>456386576</v>
+        <v>481474360</v>
       </c>
       <c r="E61">
-        <v>445517488</v>
+        <v>461093280</v>
       </c>
     </row>
   </sheetData>

--- a/output_samples_of_plants.xlsx
+++ b/output_samples_of_plants.xlsx
@@ -31,7 +31,10 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>PAR</t>
+    <t>SVEKLA</t>
+  </si>
+  <si>
+    <t>PSHENICA</t>
   </si>
   <si>
     <t>YACHMEN</t>
@@ -40,10 +43,7 @@
     <t>SOYA</t>
   </si>
   <si>
-    <t>SVEKLA</t>
-  </si>
-  <si>
-    <t>PSHENICA</t>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,13 +565,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -616,10 +616,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -633,13 +633,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,13 +650,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,13 +667,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -687,10 +687,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,10 +701,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -718,13 +718,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -735,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -752,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,7 +769,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,13 +803,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,13 +820,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,10 +837,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -854,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -871,13 +871,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -891,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,10 +905,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -925,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,13 +939,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -956,13 +956,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -976,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -990,13 +990,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,13 +1007,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,13 +1024,13 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,13 +1041,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,13 +1058,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1075,13 +1075,13 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,13 +1109,13 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,13 +1126,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -1160,13 +1160,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1194,13 +1194,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1228,13 +1228,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,13 +1245,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1262,13 +1262,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,13 +1279,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1296,13 +1296,13 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -1330,13 +1330,13 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1384,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1432,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>482174352</v>
+        <v>436149608</v>
       </c>
       <c r="D61">
-        <v>481474360</v>
+        <v>420653496</v>
       </c>
       <c r="E61">
-        <v>461093280</v>
+        <v>417776608</v>
       </c>
     </row>
   </sheetData>
